--- a/results/ElasticNet_tpesearch-train_df.xlsx
+++ b/results/ElasticNet_tpesearch-train_df.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6304347826086957</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="C2" t="n">
         <v>0.7631578947368421</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6904761904761905</v>
+        <v>0.6987951807228916</v>
       </c>
       <c r="E2" t="n">
         <v>38</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8085106382978723</v>
+        <v>0.8125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6909090909090909</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7450980392156863</v>
+        <v>0.7572815533980584</v>
       </c>
       <c r="E3" t="n">
         <v>55</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.7311827956989247</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.719472710453284</v>
+        <v>0.7284722222222222</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7270334928229665</v>
+        <v>0.7361244019138756</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7177871148459384</v>
+        <v>0.728038367060475</v>
       </c>
       <c r="E5" t="n">
         <v>93</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7357484607044452</v>
+        <v>0.7438321385902031</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="D6" t="n">
-        <v>0.722779434354387</v>
+        <v>0.7333838957458397</v>
       </c>
       <c r="E6" t="n">
         <v>93</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5434782608695652</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6578947368421053</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5952380952380952</v>
+        <v>0.7073170731707317</v>
       </c>
       <c r="E7" t="n">
         <v>38</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.723404255319149</v>
+        <v>0.8163265306122449</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6181818181818182</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="E8" t="n">
         <v>55</v>
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.7419354838709677</v>
       </c>
     </row>
     <row r="10">
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6334412580943571</v>
+        <v>0.737708719851577</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6380382775119617</v>
+        <v>0.7452153110047848</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6309523809523809</v>
+        <v>0.7382739212007505</v>
       </c>
       <c r="E10" t="n">
         <v>93</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6498861070494266</v>
+        <v>0.7520797175175055</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6374807987711214</v>
+        <v>0.7439326998729044</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="C12" t="n">
-        <v>0.631578947368421</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.6419753086419753</v>
       </c>
       <c r="E12" t="n">
         <v>38</v>
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7358490566037735</v>
+        <v>0.76</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7090909090909091</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7222222222222221</v>
+        <v>0.7238095238095238</v>
       </c>
       <c r="E13" t="n">
         <v>55</v>
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6881720430107527</v>
       </c>
     </row>
     <row r="15">
@@ -709,13 +709,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6679245283018868</v>
+        <v>0.6823255813953488</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6703349282296651</v>
+        <v>0.6875598086124401</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6688034188034188</v>
+        <v>0.6828924162257495</v>
       </c>
       <c r="E15" t="n">
         <v>93</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6803408399269629</v>
+        <v>0.696524131032758</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6785681463100818</v>
+        <v>0.6903718875045041</v>
       </c>
       <c r="E16" t="n">
         <v>93</v>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6097560975609756</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C17" t="n">
         <v>0.6578947368421053</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6329113924050632</v>
+        <v>0.625</v>
       </c>
       <c r="E17" t="n">
         <v>38</v>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.75</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7090909090909091</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7289719626168225</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="E18" t="n">
         <v>55</v>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.6774193548387096</v>
       </c>
     </row>
     <row r="20">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6798780487804879</v>
+        <v>0.6701680672268908</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6834928229665072</v>
+        <v>0.6744019138755981</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6809416775109429</v>
+        <v>0.6709905660377358</v>
       </c>
       <c r="E20" t="n">
         <v>93</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6926960398636245</v>
+        <v>0.6838649438269933</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6897214070464263</v>
+        <v>0.6793974437005478</v>
       </c>
       <c r="E21" t="n">
         <v>93</v>
@@ -842,13 +842,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6500000000000001</v>
+        <v>0.6233766233766234</v>
       </c>
       <c r="E22" t="n">
         <v>38</v>
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7090909090909091</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7358490566037736</v>
+        <v>0.7339449541284404</v>
       </c>
       <c r="E23" t="n">
         <v>55</v>
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.6881720430107527</v>
       </c>
     </row>
     <row r="25">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6918767507002801</v>
+        <v>0.6780626780626781</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6966507177033493</v>
+        <v>0.6794258373205742</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6929245283018869</v>
+        <v>0.6786607887525319</v>
       </c>
       <c r="E25" t="n">
         <v>93</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7051896027228095</v>
+        <v>0.6895199583371626</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7007709474538447</v>
+        <v>0.6887664964018915</v>
       </c>
       <c r="E26" t="n">
         <v>93</v>

--- a/results/ElasticNet_tpesearch-train_df.xlsx
+++ b/results/ElasticNet_tpesearch-train_df.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6444444444444445</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6987951807228916</v>
+        <v>0.673076923076923</v>
       </c>
       <c r="E2" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8125</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7090909090909091</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7572815533980584</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.6344086021505376</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.6344086021505376</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.6344086021505376</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.6344086021505376</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7284722222222222</v>
+        <v>0.6339712918660287</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7361244019138756</v>
+        <v>0.6298701298701299</v>
       </c>
       <c r="D5" t="n">
-        <v>0.728038367060475</v>
+        <v>0.6292213883677298</v>
       </c>
       <c r="E5" t="n">
         <v>93</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7438321385902031</v>
+        <v>0.6340999125379431</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.6344086021505376</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7333838957458397</v>
+        <v>0.6315792128144605</v>
       </c>
       <c r="E6" t="n">
         <v>93</v>
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6590909090909091</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7073170731707317</v>
+        <v>0.6601941747572815</v>
       </c>
       <c r="E7" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8163265306122449</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.5783132530120482</v>
       </c>
       <c r="E8" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.6236559139784946</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.6236559139784946</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.6236559139784946</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.6236559139784946</v>
       </c>
     </row>
     <row r="10">
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.737708719851577</v>
+        <v>0.6225071225071226</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7452153110047848</v>
+        <v>0.6196660482374767</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7382739212007505</v>
+        <v>0.6192537138846648</v>
       </c>
       <c r="E10" t="n">
         <v>93</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7520797175175055</v>
+        <v>0.6228900529975798</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.6236559139784946</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7439326998729044</v>
+        <v>0.6214548139315798</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6046511627906976</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6419753086419753</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="E12" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.76</v>
+        <v>0.65</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6909090909090909</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7238095238095238</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="E13" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.6559139784946236</v>
       </c>
     </row>
     <row r="15">
@@ -709,13 +709,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6823255813953488</v>
+        <v>0.655188679245283</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6875598086124401</v>
+        <v>0.6525974025974026</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6828924162257495</v>
+        <v>0.6526610644257703</v>
       </c>
       <c r="E15" t="n">
         <v>93</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.696524131032758</v>
+        <v>0.6554676404950295</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6903718875045041</v>
+        <v>0.6544682389084666</v>
       </c>
       <c r="E16" t="n">
         <v>93</v>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5952380952380952</v>
+        <v>0.64</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6578947368421053</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="D17" t="n">
-        <v>0.625</v>
+        <v>0.6464646464646464</v>
       </c>
       <c r="E17" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
@@ -766,16 +766,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7450980392156863</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6909090909090909</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7169811320754716</v>
+        <v>0.5977011494252873</v>
       </c>
       <c r="E18" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6236559139784946</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6236559139784946</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6236559139784946</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6236559139784946</v>
       </c>
     </row>
     <row r="20">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6701680672268908</v>
+        <v>0.6223255813953488</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6744019138755981</v>
+        <v>0.6219851576994434</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6709905660377358</v>
+        <v>0.6220828979449669</v>
       </c>
       <c r="E20" t="n">
         <v>93</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6838649438269933</v>
+        <v>0.6232758189547386</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6236559139784946</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6793974437005478</v>
+        <v>0.6233937446395733</v>
       </c>
       <c r="E21" t="n">
         <v>93</v>
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="C22" t="n">
-        <v>0.631578947368421</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6233766233766234</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="E22" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7339449541284404</v>
+        <v>0.6</v>
       </c>
       <c r="E23" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.6559139784946236</v>
       </c>
     </row>
     <row r="25">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6780626780626781</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6794258373205742</v>
+        <v>0.6502782931354359</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6786607887525319</v>
+        <v>0.6490566037735849</v>
       </c>
       <c r="E25" t="n">
         <v>93</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.6895199583371626</v>
+        <v>0.6574231277117526</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6887664964018915</v>
+        <v>0.651694055589369</v>
       </c>
       <c r="E26" t="n">
         <v>93</v>
